--- a/RadioPartsComparison.xlsx
+++ b/RadioPartsComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9733833\Documents\QUTMS_Radio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonn\Documents\QUTMS_Radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1AD391-340B-48D6-8C42-4C9F7EAC85B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070CF0C-BB2A-4C0C-B4C7-66046EE1A5BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{371B4A23-55CD-41D8-ADDD-AE67F5439DDC}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{371B4A23-55CD-41D8-ADDD-AE67F5439DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>NEO-M8</t>
   </si>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +239,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +257,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,17 +283,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,113 +609,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1274DD40-542A-43D5-B2C0-D4304843E5F4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -711,249 +726,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201C74C-0F71-4DF0-9C27-FF39B8C62523}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
     </row>
